--- a/ML_CS7641/Optimization/FourPeaks-prob_size=20/final/result.xlsx
+++ b/ML_CS7641/Optimization/FourPeaks-prob_size=20/final/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RHC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05048370361328125</v>
+        <v>2.725733041763306</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.531478643417358</v>
+        <v>0.05174446105957031</v>
       </c>
       <c r="C3" t="n">
         <v>37</v>
@@ -474,27 +474,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MIMIC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1684329509735107</v>
+        <v>1.624482870101929</v>
       </c>
       <c r="C4" t="n">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>MIMIC</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3.573306083679199</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ML_CS7641/Optimization/FourPeaks-prob_size=20/final/result.xlsx
+++ b/ML_CS7641/Optimization/FourPeaks-prob_size=20/final/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.725733041763306</v>
+        <v>2.733760833740234</v>
       </c>
       <c r="C2" t="n">
         <v>37</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05174446105957031</v>
+        <v>0.05275535583496094</v>
       </c>
       <c r="C3" t="n">
         <v>37</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.624482870101929</v>
+        <v>2.041286706924438</v>
       </c>
       <c r="C4" t="n">
         <v>37</v>
